--- a/xlsx/圣萨尔瓦多岛_intext.xlsx
+++ b/xlsx/圣萨尔瓦多岛_intext.xlsx
@@ -29,7 +29,7 @@
     <t>巴哈马</t>
   </si>
   <si>
-    <t>政策_政策_美國_圣萨尔瓦多岛</t>
+    <t>政策_政策_美国_圣萨尔瓦多岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%9B%E5%B1%BF</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%81%98</t>
   </si>
   <si>
-    <t>沙灘</t>
+    <t>沙滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8%E4%B8%9A</t>
